--- a/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_SALARY_BONUS.xlsx
+++ b/HistaffWebApp/ReportTemplates/Payroll/Business/TEMP_IMPORT_SALARY_BONUS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SOURCE_GIT_NEW\SOURCR_ACV_NEW\HistaffWebApp\ReportTemplates\Payroll\Business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject2020\ACV1\acv_19\HistaffWebApp\ReportTemplates\Payroll\Business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
